--- a/reprex/20231807T163531/data-raw/alteracoes-orcamentarias_2021.xlsx
+++ b/reprex/20231807T163531/data-raw/alteracoes-orcamentarias_2021.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10719"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m752692\assessoria_dados\datapackage-reprex\20231807T163531\data-raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fjunior/Projects/splor/datapackage-reprex/reprex/20231807T163531/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F955C533-6DA7-7B4E-AE73-071EE63CABDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="12225"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="12220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="base" sheetId="1" r:id="rId1"/>
-    <sheet name="metadados" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>ANO</t>
   </si>
@@ -33,72 +33,27 @@
   <si>
     <t>ANULACAO</t>
   </si>
-  <si>
-    <t>DATA_ATUALIZACAO</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dddd&quot;, &quot;d&quot; de &quot;mmmm&quot; de &quot;yyyy"/>
-  </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font>
-      <sz val="6"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF5175B9"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF0F0F4"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -106,63 +61,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFCACAD9"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFCACAD9"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFCACAD9"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFCACAD9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFCAC9D9"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFCAC9D9"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFCAC9D9"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFCAC9D9"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -476,192 +380,162 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="5" width="4.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" customWidth="1"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
+    <col min="5" max="5" width="4.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B2" s="4">
-        <v>1401</v>
-      </c>
-      <c r="C2" s="5">
-        <v>1000</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B3" s="4">
-        <v>1401</v>
-      </c>
-      <c r="C3" s="5">
-        <v>1000</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B4" s="4">
-        <v>1401</v>
-      </c>
-      <c r="C4" s="5">
-        <v>1000</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B5" s="4">
-        <v>1401</v>
-      </c>
-      <c r="C5" s="5">
-        <v>1000</v>
-      </c>
-      <c r="D5" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B6" s="4">
-        <v>1401</v>
-      </c>
-      <c r="C6" s="5">
-        <v>1000</v>
-      </c>
-      <c r="D6" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B7" s="4">
-        <v>1401</v>
-      </c>
-      <c r="C7" s="5">
-        <v>1000</v>
-      </c>
-      <c r="D7" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B8" s="4">
-        <v>1401</v>
-      </c>
-      <c r="C8" s="5">
-        <v>1000</v>
-      </c>
-      <c r="D8" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B9" s="4">
-        <v>1401</v>
-      </c>
-      <c r="C9" s="5">
-        <v>1000</v>
-      </c>
-      <c r="D9" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B10" s="4">
+    <row r="2" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>2021</v>
+      </c>
+      <c r="B2">
+        <v>1401</v>
+      </c>
+      <c r="C2">
+        <v>1000</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>2021</v>
+      </c>
+      <c r="B3">
+        <v>1401</v>
+      </c>
+      <c r="C3">
+        <v>1000</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>2021</v>
+      </c>
+      <c r="B4">
+        <v>1401</v>
+      </c>
+      <c r="C4">
+        <v>1000</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>2021</v>
+      </c>
+      <c r="B5">
+        <v>1401</v>
+      </c>
+      <c r="C5">
+        <v>1000</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>2021</v>
+      </c>
+      <c r="B6">
+        <v>1401</v>
+      </c>
+      <c r="C6">
+        <v>1000</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>2021</v>
+      </c>
+      <c r="B7">
+        <v>1401</v>
+      </c>
+      <c r="C7">
+        <v>1000</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>2021</v>
+      </c>
+      <c r="B8">
+        <v>1401</v>
+      </c>
+      <c r="C8">
+        <v>1000</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>2021</v>
+      </c>
+      <c r="B9">
+        <v>1401</v>
+      </c>
+      <c r="C9">
+        <v>1000</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>2021</v>
+      </c>
+      <c r="B10">
         <v>2301</v>
       </c>
-      <c r="C10" s="5">
-        <v>1000</v>
-      </c>
-      <c r="D10" s="5">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="39.7109375" customWidth="1"/>
-    <col min="2" max="2" width="4.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7">
-        <v>44588.295990775499</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" s="1" customFormat="1" ht="28.7" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="C10">
+        <v>1000</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait"/>
